--- a/src/data/Use Case Mapping Validation.xlsx
+++ b/src/data/Use Case Mapping Validation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ltimindtree-my.sharepoint.com/personal/subhash_718728_ltimindtree_com/Documents/Citi/Parvez/POC/DQ Rule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="137" documentId="11_F25DC773A252ABDACC104835A91E753A5BDE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D4E232D-C5D2-4113-882D-34F8C9C2C66C}"/>
+  <xr:revisionPtr revIDLastSave="276" documentId="11_F25DC773A252ABDACC104835A91E753A5BDE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05551B94-75EE-49E8-BA12-2ECC1E74022B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="199">
   <si>
     <t>UC ID</t>
   </si>
@@ -54,15 +54,6 @@
     <t>Report</t>
   </si>
   <si>
-    <t>UC1</t>
-  </si>
-  <si>
-    <t>Mortages</t>
-  </si>
-  <si>
-    <t>FR2052a Complex Institution Liquidity Monitoring Report</t>
-  </si>
-  <si>
     <t>Physical Table</t>
   </si>
   <si>
@@ -616,9 +607,6 @@
   </si>
   <si>
     <t>String</t>
-  </si>
-  <si>
-    <t>a unique alphanumeric id of length 5</t>
   </si>
   <si>
     <t>a name based on the Rule Attribute of length 15</t>
@@ -649,12 +637,24 @@
 D) Below table describes each column of sheet - DQ Rule Catalogue
 </t>
   </si>
+  <si>
+    <t>Unique value and is alphanumeric id of length 5</t>
+  </si>
+  <si>
+    <t>You are a Data Quality Analyst, who have been asked to validate the Sheet - Requirement against the Data Catalogue and DQ Rule Catalogue on the following quidelines. 
+A) You need to fill columns Attr to Table Mapping, Attr to Column Mapping,Attr to Rule Mapping,DQ Rule SQL  in the sheet  - Requirement
+B) Please refer to the sheet -  Data Catalogue and DQ Rule Catalogue to determine if the requirement match with existing catalogue.
+C) Format to fill Attr to Table Mapping: fill with text Match Found or Match Not Found. If match found include the excel cell address in Data Catalogue to which you matched the requirement.
+D) Format to fill Attr to Column Mapping: fill with text Match Found or Match Not Found. If match found include the excel cell address in Data Catalogue to which you matched the requirement. The match should be combination of table name and column name
+E) Format to fill Attr to Rule Mapping: fill with text Match Found or Match Not Found. If match found include the excel cell address in DQ Rule Catalogue to which you matched the requirement. The match should be combination of rule attribute and DQ rule
+F) Format to fill DQ Rule SQL: fill with SQL based on the  table ,  column and rule.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -662,13 +662,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -683,12 +708,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -973,71 +1007,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="A2" sqref="A2:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="91" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1053,7 +1076,7 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
@@ -1062,208 +1085,208 @@
     <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E4" t="s">
         <v>170</v>
       </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1273,49 +1296,94 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95008AAB-0BD8-47B0-BC7B-BDD4144D50F5}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="61" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>18</v>
-      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="4"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="4"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="4"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1324,70 +1392,70 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050375E8-854C-4570-9C1E-52DCA9E6F9BE}">
-  <dimension ref="A1:M121"/>
+  <dimension ref="A1:K121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>31</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
         <v>32</v>
       </c>
-      <c r="J1" t="s">
+      <c r="B2" s="1">
+        <v>45952</v>
+      </c>
+      <c r="C2" t="s">
         <v>33</v>
-      </c>
-      <c r="K1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="1">
-        <v>45952</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
       </c>
       <c r="D2">
         <v>6409281725.9250698</v>
@@ -1396,13 +1464,13 @@
         <v>6409281725.9250698</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I2">
         <v>450123</v>
@@ -1413,20 +1481,16 @@
       <c r="K2">
         <v>1</v>
       </c>
-      <c r="M2">
-        <f>LEN(I2)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1">
         <v>45952</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D3">
         <v>4873221157.2383099</v>
@@ -1435,13 +1499,13 @@
         <v>5847865388.6859703</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I3">
         <v>450456</v>
@@ -1453,15 +1517,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1">
         <v>45952</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D4">
         <v>1608847089.3041301</v>
@@ -1470,13 +1534,13 @@
         <v>2413270633.9562001</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I4">
         <v>550321</v>
@@ -1488,15 +1552,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B5" s="1">
         <v>45952</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D5">
         <v>9266930336.9340305</v>
@@ -1505,13 +1569,13 @@
         <v>9266930336.9340305</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I5">
         <v>660789</v>
@@ -1523,15 +1587,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1">
         <v>45952</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D6">
         <v>7296719777.9251404</v>
@@ -1540,13 +1604,13 @@
         <v>6567047800.1326303</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I6">
         <v>770654</v>
@@ -1558,15 +1622,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B7" s="1">
         <v>45952</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D7">
         <v>4444148184.8164501</v>
@@ -1575,13 +1639,13 @@
         <v>4444148184.8164501</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I7">
         <v>880321</v>
@@ -1593,15 +1657,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B8" s="1">
         <v>45952</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D8">
         <v>6120568324.0941</v>
@@ -1610,13 +1674,13 @@
         <v>6120568324.0941</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I8">
         <v>990432</v>
@@ -1628,15 +1692,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B9" s="1">
         <v>45952</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D9">
         <v>2882652859.8284202</v>
@@ -1645,13 +1709,13 @@
         <v>3459183431.7940998</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I9">
         <v>123450</v>
@@ -1663,15 +1727,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B10" s="1">
         <v>45952</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D10">
         <v>6485380995.8903503</v>
@@ -1680,13 +1744,13 @@
         <v>9728071493.8355293</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I10">
         <v>654321</v>
@@ -1698,15 +1762,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B11" s="1">
         <v>45952</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D11">
         <v>3927356406.5654402</v>
@@ -1715,13 +1779,13 @@
         <v>3927356406.5654402</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I11">
         <v>450123</v>
@@ -1733,15 +1797,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B12" s="1">
         <v>45952</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D12">
         <v>4795368544.9675903</v>
@@ -1750,13 +1814,13 @@
         <v>4315831690.47083</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I12">
         <v>450456</v>
@@ -1768,15 +1832,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B13" s="1">
         <v>45952</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D13">
         <v>575535699.45968997</v>
@@ -1785,13 +1849,13 @@
         <v>575535699.45968997</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I13">
         <v>550321</v>
@@ -1803,15 +1867,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B14" s="1">
         <v>45952</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D14">
         <v>3186443545.7851</v>
@@ -1820,13 +1884,13 @@
         <v>3186443545.7851</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I14">
         <v>660789</v>
@@ -1838,15 +1902,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B15" s="1">
         <v>45952</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D15">
         <v>1177062013.70069</v>
@@ -1855,13 +1919,13 @@
         <v>1412474416.44083</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I15">
         <v>770654</v>
@@ -1873,15 +1937,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B16" s="1">
         <v>45952</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D16">
         <v>1765152066.0371599</v>
@@ -1890,13 +1954,13 @@
         <v>2647728099.0557399</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I16">
         <v>880321</v>
@@ -1908,15 +1972,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B17" s="1">
         <v>45952</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D17">
         <v>9560053.4002400003</v>
@@ -1925,13 +1989,13 @@
         <v>9560053.4002400003</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I17">
         <v>990432</v>
@@ -1943,15 +2007,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B18" s="1">
         <v>45952</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D18">
         <v>5430832579.4172401</v>
@@ -1960,13 +2024,13 @@
         <v>4887749321.4755201</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I18">
         <v>123450</v>
@@ -1978,15 +2042,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B19" s="1">
         <v>45952</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D19">
         <v>5031774268.0805798</v>
@@ -1995,13 +2059,13 @@
         <v>5031774268.0805798</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I19">
         <v>654321</v>
@@ -2013,15 +2077,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B20" s="1">
         <v>45952</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D20">
         <v>2304209981.95823</v>
@@ -2030,13 +2094,13 @@
         <v>2304209981.95823</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I20">
         <v>450123</v>
@@ -2048,15 +2112,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B21" s="1">
         <v>45952</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D21">
         <v>402228951.97872001</v>
@@ -2065,13 +2129,13 @@
         <v>482674742.37445998</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I21">
         <v>450456</v>
@@ -2083,15 +2147,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B22" s="1">
         <v>45952</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D22">
         <v>591853592.89292002</v>
@@ -2100,13 +2164,13 @@
         <v>887780389.33938003</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I22">
         <v>550321</v>
@@ -2118,15 +2182,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B23" s="1">
         <v>45952</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D23">
         <v>1580359695.36779</v>
@@ -2135,13 +2199,13 @@
         <v>1580359695.36779</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I23">
         <v>660789</v>
@@ -2153,15 +2217,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B24" s="1">
         <v>45952</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D24">
         <v>6729760012.0012598</v>
@@ -2170,13 +2234,13 @@
         <v>6056784010.8011303</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I24">
         <v>770654</v>
@@ -2188,15 +2252,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B25" s="1">
         <v>45952</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D25">
         <v>5432990877.9749899</v>
@@ -2205,13 +2269,13 @@
         <v>5432990877.9749899</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H25" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I25">
         <v>880321</v>
@@ -2223,15 +2287,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B26" s="1">
         <v>45952</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D26">
         <v>7344817481.7257004</v>
@@ -2240,13 +2304,13 @@
         <v>7344817481.7257004</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H26" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I26">
         <v>990432</v>
@@ -2258,15 +2322,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B27" s="1">
         <v>45952</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D27">
         <v>2591818686.6333399</v>
@@ -2275,13 +2339,13 @@
         <v>3110182423.9600101</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I27">
         <v>123450</v>
@@ -2293,15 +2357,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B28" s="1">
         <v>45952</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D28">
         <v>4111260021.1037202</v>
@@ -2310,13 +2374,13 @@
         <v>6166890031.6555796</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I28">
         <v>654321</v>
@@ -2328,15 +2392,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B29" s="1">
         <v>45952</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D29">
         <v>9017759825.6768703</v>
@@ -2345,13 +2409,13 @@
         <v>9017759825.6768703</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I29">
         <v>450123</v>
@@ -2363,15 +2427,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B30" s="1">
         <v>45952</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D30">
         <v>309558339.23075002</v>
@@ -2380,13 +2444,13 @@
         <v>278602505.30768001</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I30">
         <v>450456</v>
@@ -2398,15 +2462,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B31" s="1">
         <v>45952</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D31">
         <v>46893141.119369999</v>
@@ -2415,13 +2479,13 @@
         <v>46893141.119369999</v>
       </c>
       <c r="F31" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H31" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I31">
         <v>550321</v>
@@ -2433,15 +2497,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B32" s="1">
         <v>45952</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D32">
         <v>3381786691.5197101</v>
@@ -2450,13 +2514,13 @@
         <v>3381786691.5197101</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H32" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I32">
         <v>660789</v>
@@ -2468,15 +2532,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B33" s="1">
         <v>45952</v>
       </c>
       <c r="C33" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D33">
         <v>5029736418.5607996</v>
@@ -2485,13 +2549,13 @@
         <v>6035683702.2729597</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H33" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I33">
         <v>770654</v>
@@ -2503,15 +2567,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B34" s="1">
         <v>45952</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D34">
         <v>4135137289.0124402</v>
@@ -2520,13 +2584,13 @@
         <v>6202705933.5186596</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H34" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I34">
         <v>880321</v>
@@ -2538,15 +2602,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B35" s="1">
         <v>45952</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D35">
         <v>8339976895.1633701</v>
@@ -2555,13 +2619,13 @@
         <v>8339976895.1633701</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G35" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H35" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I35">
         <v>990432</v>
@@ -2573,15 +2637,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B36" s="1">
         <v>45952</v>
       </c>
       <c r="C36" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D36">
         <v>31198942.490030002</v>
@@ -2590,13 +2654,13 @@
         <v>28079048.24103</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I36">
         <v>123450</v>
@@ -2608,15 +2672,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B37" s="1">
         <v>45952</v>
       </c>
       <c r="C37" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D37">
         <v>5634634.3248600001</v>
@@ -2625,13 +2689,13 @@
         <v>5634634.3248600001</v>
       </c>
       <c r="F37" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H37" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I37">
         <v>654321</v>
@@ -2643,15 +2707,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B38" s="1">
         <v>45952</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D38">
         <v>4015120067.8193202</v>
@@ -2660,13 +2724,13 @@
         <v>4015120067.8193202</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H38" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I38">
         <v>450123</v>
@@ -2678,15 +2742,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B39" s="1">
         <v>45952</v>
       </c>
       <c r="C39" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D39">
         <v>7974442127.1649599</v>
@@ -2695,13 +2759,13 @@
         <v>9569330552.59795</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H39" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I39">
         <v>450456</v>
@@ -2713,15 +2777,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B40" s="1">
         <v>45952</v>
       </c>
       <c r="C40" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D40">
         <v>2567153725.1285601</v>
@@ -2730,13 +2794,13 @@
         <v>3850730587.6928401</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H40" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I40">
         <v>550321</v>
@@ -2748,15 +2812,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B41" s="1">
         <v>45952</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D41">
         <v>7755688475.7964001</v>
@@ -2765,13 +2829,13 @@
         <v>7755688475.7964001</v>
       </c>
       <c r="F41" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G41" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H41" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I41">
         <v>660789</v>
@@ -2783,15 +2847,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B42" s="1">
         <v>45952</v>
       </c>
       <c r="C42" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D42">
         <v>6645976866.13482</v>
@@ -2800,13 +2864,13 @@
         <v>5981379179.5213404</v>
       </c>
       <c r="F42" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H42" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I42">
         <v>770654</v>
@@ -2818,15 +2882,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B43" s="1">
         <v>45952</v>
       </c>
       <c r="C43" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D43">
         <v>624336029.70843995</v>
@@ -2835,13 +2899,13 @@
         <v>624336029.70843995</v>
       </c>
       <c r="F43" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H43" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I43">
         <v>880321</v>
@@ -2853,15 +2917,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B44" s="1">
         <v>45952</v>
       </c>
       <c r="C44" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D44">
         <v>954545700.53408003</v>
@@ -2870,13 +2934,13 @@
         <v>954545700.53408003</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G44" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I44">
         <v>990432</v>
@@ -2888,15 +2952,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B45" s="1">
         <v>45952</v>
       </c>
       <c r="C45" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D45">
         <v>1557434958.4507201</v>
@@ -2905,13 +2969,13 @@
         <v>1868921950.1408601</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G45" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H45" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I45">
         <v>123450</v>
@@ -2923,15 +2987,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B46" s="1">
         <v>45952</v>
       </c>
       <c r="C46" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D46">
         <v>1107593529.80847</v>
@@ -2940,13 +3004,13 @@
         <v>1661390294.7127099</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H46" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I46">
         <v>654321</v>
@@ -2958,15 +3022,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B47" s="1">
         <v>45952</v>
       </c>
       <c r="C47" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D47">
         <v>9429896523.0479908</v>
@@ -2975,13 +3039,13 @@
         <v>9429896523.0479908</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G47" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H47" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I47">
         <v>450123</v>
@@ -2993,15 +3057,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B48" s="1">
         <v>45952</v>
       </c>
       <c r="C48" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D48">
         <v>2156554721.3751202</v>
@@ -3010,13 +3074,13 @@
         <v>1940899249.2376101</v>
       </c>
       <c r="F48" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H48" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I48">
         <v>450456</v>
@@ -3028,15 +3092,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B49" s="1">
         <v>45952</v>
       </c>
       <c r="C49" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D49">
         <v>176580225.91980001</v>
@@ -3045,13 +3109,13 @@
         <v>176580225.91980001</v>
       </c>
       <c r="F49" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H49" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I49">
         <v>550321</v>
@@ -3063,15 +3127,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B50" s="1">
         <v>45952</v>
       </c>
       <c r="C50" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D50">
         <v>1711912324.8982501</v>
@@ -3080,13 +3144,13 @@
         <v>1711912324.8982501</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H50" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I50">
         <v>660789</v>
@@ -3098,15 +3162,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B51" s="1">
         <v>45952</v>
       </c>
       <c r="C51" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D51">
         <v>5616441588.5384703</v>
@@ -3115,13 +3179,13 @@
         <v>6739729906.2461596</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G51" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H51" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I51">
         <v>770654</v>
@@ -3133,15 +3197,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B52" s="1">
         <v>45952</v>
       </c>
       <c r="C52" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D52">
         <v>448071612.32432997</v>
@@ -3150,13 +3214,13 @@
         <v>672107418.48650002</v>
       </c>
       <c r="F52" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I52">
         <v>880321</v>
@@ -3168,15 +3232,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B53" s="1">
         <v>45952</v>
       </c>
       <c r="C53" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D53">
         <v>4446656501.6768999</v>
@@ -3185,13 +3249,13 @@
         <v>4446656501.6768999</v>
       </c>
       <c r="F53" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G53" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H53" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I53">
         <v>990432</v>
@@ -3203,15 +3267,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B54" s="1">
         <v>45952</v>
       </c>
       <c r="C54" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D54">
         <v>6052298818.5398397</v>
@@ -3220,13 +3284,13 @@
         <v>5447068936.6858597</v>
       </c>
       <c r="F54" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H54" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I54">
         <v>123450</v>
@@ -3238,15 +3302,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B55" s="1">
         <v>45952</v>
       </c>
       <c r="C55" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D55">
         <v>2721258342.0591698</v>
@@ -3255,13 +3319,13 @@
         <v>2721258342.0591698</v>
       </c>
       <c r="F55" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H55" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I55">
         <v>654321</v>
@@ -3273,15 +3337,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B56" s="1">
         <v>45952</v>
       </c>
       <c r="C56" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D56">
         <v>6924253733.6931295</v>
@@ -3290,13 +3354,13 @@
         <v>6924253733.6931295</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G56" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H56" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I56">
         <v>450123</v>
@@ -3308,15 +3372,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B57" s="1">
         <v>45952</v>
       </c>
       <c r="C57" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D57">
         <v>3533982999.7045002</v>
@@ -3325,13 +3389,13 @@
         <v>4240779599.6454</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G57" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H57" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I57">
         <v>450456</v>
@@ -3343,15 +3407,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B58" s="1">
         <v>45952</v>
       </c>
       <c r="C58" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D58">
         <v>431028538.53303999</v>
@@ -3360,13 +3424,13 @@
         <v>646542807.79955995</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H58" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I58">
         <v>550321</v>
@@ -3378,15 +3442,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B59" s="1">
         <v>45952</v>
       </c>
       <c r="C59" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D59">
         <v>7840109548.89676</v>
@@ -3395,13 +3459,13 @@
         <v>7840109548.89676</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G59" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H59" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I59">
         <v>660789</v>
@@ -3413,15 +3477,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B60" s="1">
         <v>45952</v>
       </c>
       <c r="C60" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D60">
         <v>4366935439.4920502</v>
@@ -3430,13 +3494,13 @@
         <v>3930241895.54285</v>
       </c>
       <c r="F60" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H60" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I60">
         <v>770654</v>
@@ -3448,15 +3512,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B61" s="1">
         <v>45952</v>
       </c>
       <c r="C61" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D61">
         <v>907236992.81570995</v>
@@ -3465,13 +3529,13 @@
         <v>907236992.81570995</v>
       </c>
       <c r="F61" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G61" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H61" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I61">
         <v>880321</v>
@@ -3483,15 +3547,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B62" s="1">
         <v>45952</v>
       </c>
       <c r="C62" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D62">
         <v>2723673141.2784901</v>
@@ -3500,13 +3564,13 @@
         <v>2723673141.2784901</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G62" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H62" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I62">
         <v>990432</v>
@@ -3518,15 +3582,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B63" s="1">
         <v>45952</v>
       </c>
       <c r="C63" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D63">
         <v>4901738371.5807304</v>
@@ -3535,13 +3599,13 @@
         <v>5882086045.8968801</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G63" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H63" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I63">
         <v>123450</v>
@@ -3553,15 +3617,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B64" s="1">
         <v>45952</v>
       </c>
       <c r="C64" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D64">
         <v>4033293406.51859</v>
@@ -3570,13 +3634,13 @@
         <v>6049940109.7778902</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H64" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I64">
         <v>654321</v>
@@ -3588,15 +3652,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B65" s="1">
         <v>45952</v>
       </c>
       <c r="C65" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D65">
         <v>5597181336.9804497</v>
@@ -3605,13 +3669,13 @@
         <v>5597181336.9804497</v>
       </c>
       <c r="F65" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G65" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H65" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I65">
         <v>450123</v>
@@ -3623,15 +3687,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B66" s="1">
         <v>45952</v>
       </c>
       <c r="C66" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D66">
         <v>6214202882.6255798</v>
@@ -3640,13 +3704,13 @@
         <v>5592782594.3630199</v>
       </c>
       <c r="F66" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G66" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H66" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I66">
         <v>450456</v>
@@ -3658,15 +3722,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B67" s="1">
         <v>45952</v>
       </c>
       <c r="C67" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D67">
         <v>4056894623.6405401</v>
@@ -3675,13 +3739,13 @@
         <v>4056894623.6405401</v>
       </c>
       <c r="F67" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G67" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H67" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I67">
         <v>550321</v>
@@ -3693,15 +3757,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11">
       <c r="A68" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B68" s="1">
         <v>45952</v>
       </c>
       <c r="C68" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D68">
         <v>8388401277.9249802</v>
@@ -3710,13 +3774,13 @@
         <v>8388401277.9249802</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G68" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H68" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I68">
         <v>660789</v>
@@ -3728,15 +3792,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B69" s="1">
         <v>45952</v>
       </c>
       <c r="C69" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D69">
         <v>4985160685.1265097</v>
@@ -3745,13 +3809,13 @@
         <v>5982192822.1518097</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G69" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H69" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I69">
         <v>770654</v>
@@ -3763,15 +3827,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11">
       <c r="A70" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B70" s="1">
         <v>45952</v>
       </c>
       <c r="C70" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D70">
         <v>6645407600.9580097</v>
@@ -3780,13 +3844,13 @@
         <v>9968111401.4370193</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G70" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H70" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I70">
         <v>880321</v>
@@ -3798,15 +3862,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B71" s="1">
         <v>45952</v>
       </c>
       <c r="C71" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D71">
         <v>4889393950.9736204</v>
@@ -3815,13 +3879,13 @@
         <v>4889393950.9736204</v>
       </c>
       <c r="F71" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G71" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H71" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I71">
         <v>990432</v>
@@ -3833,15 +3897,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11">
       <c r="A72" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B72" s="1">
         <v>45952</v>
       </c>
       <c r="C72" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D72">
         <v>8642304345.4229507</v>
@@ -3850,13 +3914,13 @@
         <v>7778073910.8806601</v>
       </c>
       <c r="F72" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G72" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H72" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I72">
         <v>123450</v>
@@ -3868,15 +3932,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11">
       <c r="A73" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B73" s="1">
         <v>45952</v>
       </c>
       <c r="C73" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D73">
         <v>3265174011.2126298</v>
@@ -3885,13 +3949,13 @@
         <v>3265174011.2126298</v>
       </c>
       <c r="F73" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G73" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H73" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I73">
         <v>654321</v>
@@ -3903,15 +3967,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11">
       <c r="A74" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B74" s="1">
         <v>45952</v>
       </c>
       <c r="C74" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D74">
         <v>4676672819.6343403</v>
@@ -3920,13 +3984,13 @@
         <v>4676672819.6343403</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G74" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H74" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I74">
         <v>450123</v>
@@ -3938,15 +4002,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11">
       <c r="A75" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B75" s="1">
         <v>45952</v>
       </c>
       <c r="C75" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D75">
         <v>620114630.67252004</v>
@@ -3955,13 +4019,13 @@
         <v>744137556.80701995</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H75" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I75">
         <v>450456</v>
@@ -3973,15 +4037,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11">
       <c r="A76" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B76" s="1">
         <v>45952</v>
       </c>
       <c r="C76" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D76">
         <v>5945160579.7009096</v>
@@ -3990,13 +4054,13 @@
         <v>8917740869.5513706</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G76" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H76" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I76">
         <v>550321</v>
@@ -4008,15 +4072,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11">
       <c r="A77" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B77" s="1">
         <v>45952</v>
       </c>
       <c r="C77" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D77">
         <v>6426620093.3242197</v>
@@ -4025,13 +4089,13 @@
         <v>6426620093.3242197</v>
       </c>
       <c r="F77" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G77" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H77" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I77">
         <v>660789</v>
@@ -4043,15 +4107,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11">
       <c r="A78" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B78" s="1">
         <v>45952</v>
       </c>
       <c r="C78" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D78">
         <v>9301035937.3654194</v>
@@ -4060,13 +4124,13 @@
         <v>8370932343.6288795</v>
       </c>
       <c r="F78" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G78" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H78" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I78">
         <v>770654</v>
@@ -4078,15 +4142,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11">
       <c r="A79" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B79" s="1">
         <v>45952</v>
       </c>
       <c r="C79" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D79">
         <v>1080574702.34958</v>
@@ -4095,13 +4159,13 @@
         <v>1080574702.34958</v>
       </c>
       <c r="F79" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G79" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H79" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I79">
         <v>880321</v>
@@ -4113,15 +4177,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11">
       <c r="A80" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B80" s="1">
         <v>45952</v>
       </c>
       <c r="C80" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D80">
         <v>5957857880.4820604</v>
@@ -4130,13 +4194,13 @@
         <v>5957857880.4820604</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G80" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H80" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I80">
         <v>990432</v>
@@ -4148,15 +4212,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11">
       <c r="A81" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B81" s="1">
         <v>45952</v>
       </c>
       <c r="C81" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D81">
         <v>3483786928.6998</v>
@@ -4165,13 +4229,13 @@
         <v>4180544314.4397602</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G81" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H81" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I81">
         <v>123450</v>
@@ -4183,15 +4247,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11">
       <c r="A82" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B82" s="1">
         <v>45952</v>
       </c>
       <c r="C82" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D82">
         <v>5164789912.5661602</v>
@@ -4200,13 +4264,13 @@
         <v>7747184868.8492403</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G82" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H82" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I82">
         <v>654321</v>
@@ -4218,15 +4282,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11">
       <c r="A83" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B83" s="1">
         <v>45952</v>
       </c>
       <c r="C83" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D83">
         <v>2882956945.5282202</v>
@@ -4235,13 +4299,13 @@
         <v>2882956945.5282202</v>
       </c>
       <c r="F83" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G83" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H83" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I83">
         <v>450123</v>
@@ -4253,15 +4317,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11">
       <c r="A84" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B84" s="1">
         <v>45952</v>
       </c>
       <c r="C84" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D84">
         <v>2339444226.1928601</v>
@@ -4270,13 +4334,13 @@
         <v>2105499803.57357</v>
       </c>
       <c r="F84" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G84" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H84" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I84">
         <v>450456</v>
@@ -4288,15 +4352,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11">
       <c r="A85" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B85" s="1">
         <v>45952</v>
       </c>
       <c r="C85" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D85">
         <v>951114426.87520003</v>
@@ -4305,13 +4369,13 @@
         <v>951114426.87520003</v>
       </c>
       <c r="F85" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G85" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H85" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I85">
         <v>550321</v>
@@ -4323,15 +4387,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11">
       <c r="A86" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B86" s="1">
         <v>45952</v>
       </c>
       <c r="C86" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D86">
         <v>8054922905.5973797</v>
@@ -4340,13 +4404,13 @@
         <v>8054922905.5973797</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G86" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H86" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I86">
         <v>660789</v>
@@ -4358,15 +4422,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11">
       <c r="A87" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B87" s="1">
         <v>45952</v>
       </c>
       <c r="C87" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D87">
         <v>6018172592.1534996</v>
@@ -4375,13 +4439,13 @@
         <v>7221807110.5841999</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G87" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H87" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I87">
         <v>770654</v>
@@ -4393,15 +4457,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11">
       <c r="A88" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B88" s="1">
         <v>45952</v>
       </c>
       <c r="C88" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D88">
         <v>734183547.63858998</v>
@@ -4410,13 +4474,13 @@
         <v>1101275321.45789</v>
       </c>
       <c r="F88" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G88" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H88" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I88">
         <v>880321</v>
@@ -4428,15 +4492,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11">
       <c r="A89" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B89" s="1">
         <v>45952</v>
       </c>
       <c r="C89" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D89">
         <v>1178682071.8287799</v>
@@ -4445,13 +4509,13 @@
         <v>1178682071.8287799</v>
       </c>
       <c r="F89" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G89" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H89" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I89">
         <v>990432</v>
@@ -4463,15 +4527,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11">
       <c r="A90" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B90" s="1">
         <v>45952</v>
       </c>
       <c r="C90" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D90">
         <v>7443754246.7260399</v>
@@ -4480,13 +4544,13 @@
         <v>6699378822.0534401</v>
       </c>
       <c r="F90" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G90" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H90" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I90">
         <v>123450</v>
@@ -4498,15 +4562,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11">
       <c r="A91" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B91" s="1">
         <v>45952</v>
       </c>
       <c r="C91" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D91">
         <v>5401968456.60569</v>
@@ -4515,13 +4579,13 @@
         <v>5401968456.60569</v>
       </c>
       <c r="F91" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G91" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H91" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I91">
         <v>654321</v>
@@ -4533,15 +4597,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11">
       <c r="A92" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B92" s="1">
         <v>45952</v>
       </c>
       <c r="C92" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D92">
         <v>4444603175.3044701</v>
@@ -4550,13 +4614,13 @@
         <v>4444603175.3044701</v>
       </c>
       <c r="F92" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G92" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H92" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I92">
         <v>450123</v>
@@ -4568,15 +4632,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11">
       <c r="A93" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B93" s="1">
         <v>45952</v>
       </c>
       <c r="C93" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D93">
         <v>3723348692.2000399</v>
@@ -4585,13 +4649,13 @@
         <v>4468018430.6400499</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G93" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H93" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I93">
         <v>450456</v>
@@ -4603,15 +4667,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11">
       <c r="A94" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B94" s="1">
         <v>45952</v>
       </c>
       <c r="C94" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D94">
         <v>965546369.71003997</v>
@@ -4620,13 +4684,13 @@
         <v>1448319554.5650599</v>
       </c>
       <c r="F94" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G94" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H94" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I94">
         <v>550321</v>
@@ -4638,15 +4702,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11">
       <c r="A95" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B95" s="1">
         <v>45952</v>
       </c>
       <c r="C95" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D95">
         <v>6511902391.7572298</v>
@@ -4655,13 +4719,13 @@
         <v>6511902391.7572298</v>
       </c>
       <c r="F95" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G95" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H95" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I95">
         <v>660789</v>
@@ -4673,15 +4737,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11">
       <c r="A96" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B96" s="1">
         <v>45952</v>
       </c>
       <c r="C96" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D96">
         <v>1691883938.3531599</v>
@@ -4690,13 +4754,13 @@
         <v>1522695544.5178399</v>
       </c>
       <c r="F96" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G96" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H96" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I96">
         <v>770654</v>
@@ -4708,15 +4772,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11">
       <c r="A97" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B97" s="1">
         <v>45952</v>
       </c>
       <c r="C97" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D97">
         <v>5334368716.9603701</v>
@@ -4725,13 +4789,13 @@
         <v>5334368716.9603701</v>
       </c>
       <c r="F97" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G97" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H97" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I97">
         <v>880321</v>
@@ -4743,15 +4807,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11">
       <c r="A98" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B98" s="1">
         <v>45952</v>
       </c>
       <c r="C98" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D98">
         <v>4897184281.6471395</v>
@@ -4760,13 +4824,13 @@
         <v>4897184281.6471395</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G98" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H98" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I98">
         <v>990432</v>
@@ -4778,15 +4842,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11">
       <c r="A99" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B99" s="1">
         <v>45952</v>
       </c>
       <c r="C99" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D99">
         <v>5508505816.3138905</v>
@@ -4795,13 +4859,13 @@
         <v>6610206979.5766697</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G99" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H99" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I99">
         <v>123450</v>
@@ -4813,15 +4877,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11">
       <c r="A100" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B100" s="1">
         <v>45952</v>
       </c>
       <c r="C100" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D100">
         <v>3813131976.5237899</v>
@@ -4830,13 +4894,13 @@
         <v>5719697964.7856903</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G100" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H100" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I100">
         <v>654321</v>
@@ -4848,15 +4912,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11">
       <c r="A101" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B101" s="1">
         <v>45952</v>
       </c>
       <c r="C101" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D101">
         <v>6420667098.15695</v>
@@ -4865,13 +4929,13 @@
         <v>6420667098.15695</v>
       </c>
       <c r="F101" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G101" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H101" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I101">
         <v>450123</v>
@@ -4883,15 +4947,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11">
       <c r="A102" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B102" s="1">
         <v>45952</v>
       </c>
       <c r="C102" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D102">
         <v>2859626822.5467501</v>
@@ -4900,13 +4964,13 @@
         <v>2573664140.2920799</v>
       </c>
       <c r="F102" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G102" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H102" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I102">
         <v>450456</v>
@@ -4918,15 +4982,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11">
       <c r="A103" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B103" s="1">
         <v>45952</v>
       </c>
       <c r="C103" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D103">
         <v>7286018789.0650196</v>
@@ -4935,13 +4999,13 @@
         <v>7286018789.0650196</v>
       </c>
       <c r="F103" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G103" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H103" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I103">
         <v>550321</v>
@@ -4953,15 +5017,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11">
       <c r="A104" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B104" s="1">
         <v>45952</v>
       </c>
       <c r="C104" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D104">
         <v>3332180578.4363098</v>
@@ -4970,13 +5034,13 @@
         <v>3332180578.4363098</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G104" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H104" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I104">
         <v>660789</v>
@@ -4988,15 +5052,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11">
       <c r="A105" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B105" s="1">
         <v>45952</v>
       </c>
       <c r="C105" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D105">
         <v>8032093670.4537296</v>
@@ -5005,13 +5069,13 @@
         <v>9638512404.5444794</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G105" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H105" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I105">
         <v>770654</v>
@@ -5023,15 +5087,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11">
       <c r="A106" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B106" s="1">
         <v>45952</v>
       </c>
       <c r="C106" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D106">
         <v>1319653994.71188</v>
@@ -5040,13 +5104,13 @@
         <v>1979480992.0678201</v>
       </c>
       <c r="F106" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G106" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H106" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I106">
         <v>880321</v>
@@ -5058,15 +5122,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11">
       <c r="A107" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B107" s="1">
         <v>45952</v>
       </c>
       <c r="C107" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D107">
         <v>2589818725.9623699</v>
@@ -5075,13 +5139,13 @@
         <v>2589818725.9623699</v>
       </c>
       <c r="F107" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H107" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I107">
         <v>990432</v>
@@ -5093,15 +5157,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11">
       <c r="A108" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B108" s="1">
         <v>45952</v>
       </c>
       <c r="C108" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D108">
         <v>8354590861.2748604</v>
@@ -5110,13 +5174,13 @@
         <v>7519131775.1473703</v>
       </c>
       <c r="F108" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G108" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H108" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I108">
         <v>123450</v>
@@ -5128,15 +5192,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11">
       <c r="A109" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B109" s="1">
         <v>45952</v>
       </c>
       <c r="C109" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D109">
         <v>5859586400.8091698</v>
@@ -5145,13 +5209,13 @@
         <v>5859586400.8091698</v>
       </c>
       <c r="F109" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G109" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H109" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I109">
         <v>654321</v>
@@ -5163,15 +5227,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11">
       <c r="A110" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B110" s="1">
         <v>45952</v>
       </c>
       <c r="C110" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D110">
         <v>8763351434.8780308</v>
@@ -5180,13 +5244,13 @@
         <v>8763351434.8780308</v>
       </c>
       <c r="F110" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G110" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H110" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I110">
         <v>450123</v>
@@ -5198,15 +5262,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11">
       <c r="A111" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B111" s="1">
         <v>45952</v>
       </c>
       <c r="C111" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D111">
         <v>2626379698.5792398</v>
@@ -5215,13 +5279,13 @@
         <v>3151655638.2950902</v>
       </c>
       <c r="F111" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G111" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H111" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I111">
         <v>450456</v>
@@ -5233,15 +5297,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11">
       <c r="A112" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B112" s="1">
         <v>45952</v>
       </c>
       <c r="C112" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D112">
         <v>503041700.31051999</v>
@@ -5250,13 +5314,13 @@
         <v>754562550.46578002</v>
       </c>
       <c r="F112" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G112" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H112" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I112">
         <v>550321</v>
@@ -5268,15 +5332,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11">
       <c r="A113" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B113" s="1">
         <v>45952</v>
       </c>
       <c r="C113" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D113">
         <v>5901818069.3234901</v>
@@ -5285,13 +5349,13 @@
         <v>5901818069.3234901</v>
       </c>
       <c r="F113" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H113" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I113">
         <v>660789</v>
@@ -5303,15 +5367,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11">
       <c r="A114" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B114" s="1">
         <v>45952</v>
       </c>
       <c r="C114" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D114">
         <v>5089905592.7771902</v>
@@ -5320,13 +5384,13 @@
         <v>4580915033.4994698</v>
       </c>
       <c r="F114" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G114" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H114" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I114">
         <v>770654</v>
@@ -5338,15 +5402,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11">
       <c r="A115" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B115" s="1">
         <v>45952</v>
       </c>
       <c r="C115" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D115">
         <v>2907518258.7836499</v>
@@ -5355,13 +5419,13 @@
         <v>2907518258.7836499</v>
       </c>
       <c r="F115" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G115" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H115" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I115">
         <v>880321</v>
@@ -5373,15 +5437,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11">
       <c r="A116" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B116" s="1">
         <v>45952</v>
       </c>
       <c r="C116" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D116">
         <v>7661725530.5991201</v>
@@ -5390,13 +5454,13 @@
         <v>7661725530.5991201</v>
       </c>
       <c r="F116" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G116" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H116" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I116">
         <v>990432</v>
@@ -5408,15 +5472,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11">
       <c r="A117" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B117" s="1">
         <v>45952</v>
       </c>
       <c r="C117" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D117">
         <v>3957830550.26368</v>
@@ -5425,13 +5489,13 @@
         <v>4749396660.3164196</v>
       </c>
       <c r="F117" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G117" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H117" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I117">
         <v>123450</v>
@@ -5443,15 +5507,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11">
       <c r="A118" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B118" s="1">
         <v>45952</v>
       </c>
       <c r="C118" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D118">
         <v>4795581631.0300903</v>
@@ -5460,13 +5524,13 @@
         <v>7193372446.5451403</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G118" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H118" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I118">
         <v>654321</v>
@@ -5478,15 +5542,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11">
       <c r="A119" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B119" s="1">
         <v>45952</v>
       </c>
       <c r="C119" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D119">
         <v>4289741656.62216</v>
@@ -5495,13 +5559,13 @@
         <v>4289741656.62216</v>
       </c>
       <c r="F119" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G119" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H119" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I119">
         <v>450123</v>
@@ -5513,15 +5577,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11">
       <c r="A120" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B120" s="1">
         <v>45952</v>
       </c>
       <c r="C120" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D120">
         <v>9387263800.3492603</v>
@@ -5530,13 +5594,13 @@
         <v>8448537420.3143301</v>
       </c>
       <c r="F120" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G120" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H120" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I120">
         <v>450456</v>
@@ -5548,15 +5612,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11">
       <c r="A121" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B121" s="1">
         <v>45952</v>
       </c>
       <c r="C121" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D121">
         <v>4851073816.2510595</v>
@@ -5565,13 +5629,13 @@
         <v>4851073816.2510595</v>
       </c>
       <c r="F121" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G121" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H121" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I121">
         <v>550321</v>
@@ -5590,120 +5654,125 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF03433-6C40-4E03-B672-114C0595861A}">
-  <dimension ref="A2:C11"/>
+  <dimension ref="A2:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="189" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="77.109375" customWidth="1"/>
     <col min="3" max="3" width="84" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="144">
       <c r="A2" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" t="s">
         <v>189</v>
       </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" t="s">
         <v>191</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>191</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>191</v>
-      </c>
-      <c r="C8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>191</v>
-      </c>
-      <c r="C9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>191</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="14" spans="1:3" ht="230.4">
+      <c r="A14" s="2" t="s">
         <v>198</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>191</v>
-      </c>
-      <c r="C11" t="s">
-        <v>199</v>
       </c>
     </row>
   </sheetData>
